--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed5/result_data_RandomForest.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.986399999999995</v>
+        <v>5.830899999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.39849999999999</v>
+        <v>-21.412</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.221599999999999</v>
+        <v>-8.2766</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.283099999999997</v>
+        <v>-8.3384</v>
       </c>
     </row>
     <row r="20">
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.765399999999998</v>
+        <v>8.845299999999996</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.710200000000002</v>
+        <v>-7.861400000000003</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.9941</v>
+        <v>-21.92130000000001</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.971799999999999</v>
+        <v>5.890599999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.07049999999999</v>
+        <v>-21.009</v>
       </c>
       <c r="B32" t="n">
-        <v>6.295199999999998</v>
+        <v>6.0295</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.740600000000004</v>
+        <v>9.7142</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.80939999999999</v>
+        <v>-19.9036</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.27609999999999</v>
+        <v>-20.2983</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.335599999999996</v>
+        <v>-7.340799999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.277899999999995</v>
+        <v>-8.370499999999995</v>
       </c>
     </row>
     <row r="42">
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.5198</v>
+        <v>10.2769</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.01210000000001</v>
+        <v>-22.03660000000002</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.314399999999999</v>
+        <v>5.249200000000003</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.956800000000004</v>
+        <v>-7.805500000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.822</v>
+        <v>-21.83570000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>5.107899999999995</v>
+        <v>5.393499999999994</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.16070000000001</v>
+        <v>-22.03180000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.9532</v>
+        <v>-21.93860000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.59869999999996</v>
+        <v>-21.60869999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61279999999997</v>
+        <v>-21.64569999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.9475</v>
+        <v>-21.9051</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.223100000000003</v>
+        <v>-7.544300000000004</v>
       </c>
     </row>
     <row r="73">
@@ -1524,13 +1524,13 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.801500000000004</v>
+        <v>8.803500000000003</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.065099999999999</v>
+        <v>-7.968100000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.753999999999998</v>
+        <v>9.701600000000003</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.7363</v>
+        <v>-21.61209999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.639200000000004</v>
+        <v>-7.842400000000002</v>
       </c>
     </row>
     <row r="84">
@@ -1628,12 +1628,12 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.642299999999995</v>
+        <v>-8.811099999999993</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.86509999999999</v>
+        <v>-21.7722</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.796500000000005</v>
+        <v>-8.769000000000004</v>
       </c>
     </row>
     <row r="87">
@@ -1698,12 +1698,12 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.962699999999997</v>
+        <v>-6.760099999999995</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.83809999999999</v>
+        <v>-20.99509999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.57710000000001</v>
+        <v>-21.61340000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.5366</v>
+        <v>-8.647999999999991</v>
       </c>
     </row>
     <row r="97">
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.9892</v>
+        <v>6.314099999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.79699999999999</v>
+        <v>-21.77979999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>6.051499999999997</v>
+        <v>5.758699999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.323099999999996</v>
+        <v>4.735699999999998</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.983399999999997</v>
+        <v>-7.996399999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.5905</v>
+        <v>-21.60169999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
